--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71D89F8-8F58-489E-9EC2-DA783F2CB5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{831DAF31-7FC8-473D-9F5B-23D0DD072CF2}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Frequency</t>
   </si>
@@ -59,6 +59,60 @@
   </si>
   <si>
     <t>Hilbert</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Sample Rate</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Signal Representation</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Signal Process</t>
+  </si>
+  <si>
+    <t>Hilbert</t>
+  </si>
+  <si>
+    <t>Signal Type</t>
+  </si>
+  <si>
+    <t>Sinusoidal</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Sample Rate</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Signal Representation</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Signal Process</t>
+  </si>
+  <si>
+    <t>Hilbert</t>
+  </si>
+  <si>
+    <t>Signal Type</t>
+  </si>
+  <si>
+    <t>Sinusoidal</t>
   </si>
 </sst>
 </file>
@@ -82,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,12 +144,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,53 +470,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F777CF4-C711-4B31-8594-9F52BE651845}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
+    <col min="3" max="3" width="8.85546875" customWidth="true"/>
+    <col min="4" max="4" width="20.5703125" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" customWidth="true"/>
+    <col min="6" max="6" width="11.140625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>60</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>8000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="D2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
